--- a/streamflow-data/data-dict.xlsx
+++ b/streamflow-data/data-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB8C19-AA96-0741-965B-1EB30102CE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E41D1-44B8-2F47-8E84-DE6377F5FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="4" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="5" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="bon" sheetId="3" r:id="rId3"/>
     <sheet name="debug-cha" sheetId="4" r:id="rId4"/>
     <sheet name="debug-diu" sheetId="5" r:id="rId5"/>
+    <sheet name="debug-ddu" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -365,6 +366,102 @@
   </si>
   <si>
     <t>U2 [m3/hr]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date: </t>
+  </si>
+  <si>
+    <t>"2023-06-01T00:00:00"</t>
+  </si>
+  <si>
+    <t>SoC: 0.5</t>
+  </si>
+  <si>
+    <t>Debug #1: Checking Scale</t>
+  </si>
+  <si>
+    <t>Total Release [m3/hr]</t>
+  </si>
+  <si>
+    <t>Historical Release</t>
+  </si>
+  <si>
+    <t>SoC1: 0.5</t>
+  </si>
+  <si>
+    <t>Unit 02 Simulation</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>"2023-06-01T00:02:00"</t>
+  </si>
+  <si>
+    <t>"2023-06-01T00:08:00"</t>
+  </si>
+  <si>
+    <t>SoC2: 0.5</t>
+  </si>
+  <si>
+    <t>Wet Season</t>
+  </si>
+  <si>
+    <t>Debug #2: Checking Estimated Std Formula on DIU Simulations</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Q_Pred [m3/hr]</t>
+  </si>
+  <si>
+    <t>Q_Historical [m3/hr]</t>
+  </si>
+  <si>
+    <t>DIU</t>
+  </si>
+  <si>
+    <t>TRAINING</t>
+  </si>
+  <si>
+    <t>Norm Release</t>
+  </si>
+  <si>
+    <t>Norm Q Pred</t>
+  </si>
+  <si>
+    <t>Norm Q Historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error </t>
+  </si>
+  <si>
+    <t>Norm Error</t>
+  </si>
+  <si>
+    <t>Norm Estimated Std</t>
+  </si>
+  <si>
+    <t>Estimated Std</t>
+  </si>
+  <si>
+    <t>Historical Release [m3/hr]</t>
+  </si>
+  <si>
+    <t>Wet Season Outflow Mean:</t>
+  </si>
+  <si>
+    <t>Wet Season Outflow Std:</t>
+  </si>
+  <si>
+    <t>Wet Season Inflow Mean:</t>
+  </si>
+  <si>
+    <t>Wet Season Inflow Std:</t>
   </si>
 </sst>
 </file>
@@ -377,7 +474,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,6 +635,39 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -560,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,6 +807,25 @@
     <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,6 +842,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9931A0CC-C111-407B-6386-905415232247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11214100" y="825500"/>
+          <a:ext cx="4140200" cy="2760133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5900,10 +6098,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45049F-3A37-D04F-B434-CE1608A3C430}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5917,125 +6115,88 @@
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+      <c r="B3" s="44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B4" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C4" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34">
-        <v>173.540663919362</v>
-      </c>
-      <c r="C3" s="40">
-        <v>889452769.920017</v>
-      </c>
-      <c r="D3" s="40">
-        <v>3119378.6879999898</v>
-      </c>
-      <c r="E3" s="41">
-        <v>22.707382185179199</v>
-      </c>
-      <c r="F3" s="41">
-        <v>173.54066391936101</v>
-      </c>
-      <c r="G3" s="36">
-        <v>8.7856315076351098E-6</v>
-      </c>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35">
-        <v>209.92702924016601</v>
-      </c>
-      <c r="C4" s="40">
-        <v>912569710.63206899</v>
-      </c>
-      <c r="D4" s="40">
-        <v>3731021.565068</v>
-      </c>
-      <c r="E4" s="41">
-        <v>22.965426555801301</v>
-      </c>
-      <c r="F4" s="41">
-        <v>209.92702924016601</v>
-      </c>
-      <c r="G4" s="36">
-        <v>0</v>
-      </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36">
-        <v>246.97698326036701</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="34">
+        <v>173.540663919362</v>
       </c>
       <c r="C5" s="40">
-        <v>935075008.46702194</v>
+        <v>889452769.920017</v>
       </c>
       <c r="D5" s="40">
-        <v>4342664.4421666795</v>
+        <v>3119378.6879999898</v>
       </c>
       <c r="E5" s="41">
-        <v>23.213152497850199</v>
+        <v>22.707382185179199</v>
       </c>
       <c r="F5" s="41">
-        <v>246.97698326036701</v>
+        <v>173.54066391936101</v>
       </c>
       <c r="G5" s="36">
-        <v>0</v>
+        <v>8.7856315076351098E-6</v>
       </c>
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36">
-        <v>284.64904411047303</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="35">
+        <v>209.92702924016601</v>
       </c>
       <c r="C6" s="40">
-        <v>956968663.42197502</v>
+        <v>912569710.63206899</v>
       </c>
       <c r="D6" s="40">
-        <v>4954307.3221666804</v>
+        <v>3731021.565068</v>
       </c>
       <c r="E6" s="41">
-        <v>23.4509641318711</v>
+        <v>22.965426555801301</v>
       </c>
       <c r="F6" s="41">
-        <v>284.64904411047303</v>
+        <v>209.92702924016601</v>
       </c>
       <c r="G6" s="36">
         <v>0</v>
@@ -6044,269 +6205,1014 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="36">
-        <v>320.02941347805597</v>
+        <v>246.97698326036701</v>
       </c>
       <c r="C7" s="40">
-        <v>958590101.42128205</v>
+        <v>935075008.46702194</v>
       </c>
       <c r="D7" s="40">
-        <v>5565950.2021666802</v>
+        <v>4342664.4421666795</v>
       </c>
       <c r="E7" s="41">
-        <v>23.468454739023301</v>
+        <v>23.213152497850199</v>
       </c>
       <c r="F7" s="41">
-        <v>320.02941347805597</v>
-      </c>
-      <c r="G7" s="47">
-        <v>19660574.075646799</v>
+        <v>246.97698326036701</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
       </c>
       <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="36">
-        <v>355.19748093591699</v>
+        <v>284.64904411047303</v>
       </c>
       <c r="C8" s="40">
-        <v>958590101.45702004</v>
+        <v>956968663.42197502</v>
       </c>
       <c r="D8" s="40">
-        <v>6177593.0821666801</v>
+        <v>4954307.3221666804</v>
       </c>
       <c r="E8" s="41">
-        <v>23.468454739408699</v>
+        <v>23.4509641318711</v>
       </c>
       <c r="F8" s="41">
-        <v>355.19748093591699</v>
-      </c>
-      <c r="G8" s="47">
-        <v>20670369.159214702</v>
+        <v>284.64904411047303</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
       </c>
       <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="36">
+        <v>320.02941347805597</v>
+      </c>
+      <c r="C9" s="40">
+        <v>958590101.42128205</v>
+      </c>
+      <c r="D9" s="40">
+        <v>5565950.2021666802</v>
+      </c>
+      <c r="E9" s="41">
+        <v>23.468454739023301</v>
+      </c>
+      <c r="F9" s="41">
+        <v>320.02941347805597</v>
+      </c>
+      <c r="G9" s="47">
+        <v>19660574.075646799</v>
+      </c>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="36">
+        <v>355.19748093591699</v>
+      </c>
+      <c r="C10" s="40">
+        <v>958590101.45702004</v>
+      </c>
+      <c r="D10" s="40">
+        <v>6177593.0821666801</v>
+      </c>
+      <c r="E10" s="41">
+        <v>23.468454739408699</v>
+      </c>
+      <c r="F10" s="41">
+        <v>355.19748093591699</v>
+      </c>
+      <c r="G10" s="47">
+        <v>20670369.159214702</v>
+      </c>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B11" s="36">
         <v>390.36554838785298</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C11" s="40">
         <v>958590101.45328403</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D11" s="40">
         <v>6789235.96216668</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E11" s="41">
         <v>23.468454739368401</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F11" s="41">
         <v>390.36554838785202</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G11" s="47">
         <v>20058726.318689901</v>
       </c>
-      <c r="H9" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="H11" s="41"/>
+    </row>
+    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C13" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="36">
-        <v>646.97309800004098</v>
-      </c>
-      <c r="C12" s="47">
-        <v>129622258.171387</v>
-      </c>
-      <c r="D12" s="46">
-        <v>5270322.8159999996</v>
-      </c>
-      <c r="E12" s="41">
-        <v>50.1052139431063</v>
-      </c>
-      <c r="F12" s="45">
-        <v>646.97309800004098</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="36">
-        <v>708.38535868818406</v>
-      </c>
-      <c r="C13" s="47">
-        <v>133223556.472829</v>
-      </c>
-      <c r="D13" s="46">
-        <v>5749443.0719998302</v>
-      </c>
-      <c r="E13" s="41">
-        <v>50.289545870161497</v>
-      </c>
-      <c r="F13" s="45">
-        <v>708.38535868818406</v>
-      </c>
-      <c r="G13" s="46">
-        <v>17258578.239997301</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="36">
-        <v>767.41747191218099</v>
+        <v>646.97309800004098</v>
       </c>
       <c r="C14" s="47">
-        <v>133223556.472829</v>
+        <v>129622258.171387</v>
       </c>
       <c r="D14" s="46">
-        <v>6228563.3279996701</v>
+        <v>5270322.8159999996</v>
       </c>
       <c r="E14" s="41">
-        <v>50.289545870161497</v>
+        <v>50.1052139431063</v>
       </c>
       <c r="F14" s="45">
-        <v>767.41747191217996</v>
-      </c>
-      <c r="G14" s="46">
-        <v>20380756.2854403</v>
+        <v>646.97309800004098</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="36">
-        <v>826.44958513619804</v>
+        <v>708.38535868818406</v>
       </c>
       <c r="C15" s="47">
-        <v>133223556.47283</v>
+        <v>133223556.472829</v>
       </c>
       <c r="D15" s="46">
-        <v>6707683.5839996701</v>
+        <v>5749443.0719998302</v>
       </c>
       <c r="E15" s="41">
         <v>50.289545870161497</v>
       </c>
       <c r="F15" s="45">
-        <v>826.44958513619804</v>
+        <v>708.38535868818406</v>
       </c>
       <c r="G15" s="46">
-        <v>19901636.029440001</v>
+        <v>17258578.239997301</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="36">
-        <v>885.48169836021498</v>
+        <v>767.41747191218099</v>
       </c>
       <c r="C16" s="47">
-        <v>133223556.47283</v>
+        <v>133223556.472829</v>
       </c>
       <c r="D16" s="46">
-        <v>7186803.8399996702</v>
+        <v>6228563.3279996701</v>
       </c>
       <c r="E16" s="41">
         <v>50.289545870161497</v>
       </c>
       <c r="F16" s="45">
-        <v>885.48169836021498</v>
+        <v>767.41747191217996</v>
       </c>
       <c r="G16" s="46">
-        <v>19422515.773440301</v>
+        <v>20380756.2854403</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="36">
-        <v>944.513811584211</v>
+        <v>826.44958513619804</v>
       </c>
       <c r="C17" s="47">
-        <v>133223556.472829</v>
+        <v>133223556.47283</v>
       </c>
       <c r="D17" s="46">
-        <v>7665924.0959994998</v>
+        <v>6707683.5839996701</v>
       </c>
       <c r="E17" s="41">
         <v>50.289545870161497</v>
       </c>
       <c r="F17" s="45">
-        <v>944.513811584211</v>
+        <v>826.44958513619804</v>
       </c>
       <c r="G17" s="46">
-        <v>18943395.517440699</v>
+        <v>19901636.029440001</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="36">
-        <v>1003.54592480822</v>
+        <v>885.48169836021498</v>
       </c>
       <c r="C18" s="47">
         <v>133223556.47283</v>
       </c>
       <c r="D18" s="46">
-        <v>8145044.3519994998</v>
+        <v>7186803.8399996702</v>
       </c>
       <c r="E18" s="41">
         <v>50.289545870161497</v>
       </c>
       <c r="F18" s="45">
+        <v>885.48169836021498</v>
+      </c>
+      <c r="G18" s="46">
+        <v>19422515.773440301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="36">
+        <v>944.513811584211</v>
+      </c>
+      <c r="C19" s="47">
+        <v>133223556.472829</v>
+      </c>
+      <c r="D19" s="46">
+        <v>7665924.0959994998</v>
+      </c>
+      <c r="E19" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F19" s="45">
+        <v>944.513811584211</v>
+      </c>
+      <c r="G19" s="46">
+        <v>18943395.517440699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="36">
         <v>1003.54592480822</v>
       </c>
-      <c r="G18" s="46">
+      <c r="C20" s="47">
+        <v>133223556.47283</v>
+      </c>
+      <c r="D20" s="46">
+        <v>8145044.3519994998</v>
+      </c>
+      <c r="E20" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F20" s="45">
+        <v>1003.54592480822</v>
+      </c>
+      <c r="G20" s="46">
         <v>18464275.261440299</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB35300-098C-3C44-97E3-2DD3A32320BD}">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49">
+        <v>5270322.8159999996</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46">
+        <f>SUM(C5+D5)</f>
+        <v>5270322.8159999996</v>
+      </c>
+      <c r="F5" s="51">
+        <v>26640057.600000001</v>
+      </c>
+      <c r="G5" s="46">
+        <f>ABS(E5-F5)</f>
+        <v>21369734.784000002</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52">
+        <v>5749443.0719998302</v>
+      </c>
+      <c r="D6" s="46">
+        <v>10775979.2358361</v>
+      </c>
+      <c r="E6" s="46">
+        <f t="shared" ref="E6:E16" si="0">SUM(C6+D6)</f>
+        <v>16525422.307835929</v>
+      </c>
+      <c r="F6" s="51">
+        <v>26640057.600000001</v>
+      </c>
+      <c r="G6" s="46">
+        <f t="shared" ref="G6:G16" si="1">ABS(E6-F6)</f>
+        <v>10114635.292164072</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="46">
+        <v>6228563.3279996701</v>
+      </c>
+      <c r="D7" s="46">
+        <v>17059841.268480301</v>
+      </c>
+      <c r="E7" s="46">
+        <f t="shared" si="0"/>
+        <v>23288404.596479971</v>
+      </c>
+      <c r="F7" s="51">
+        <v>26711424</v>
+      </c>
+      <c r="G7" s="46">
+        <f t="shared" si="1"/>
+        <v>3423019.403520029</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="46">
+        <v>6707683.5839996701</v>
+      </c>
+      <c r="D8" s="46">
+        <v>16580721.01248</v>
+      </c>
+      <c r="E8" s="46">
+        <f t="shared" si="0"/>
+        <v>23288404.596479669</v>
+      </c>
+      <c r="F8" s="51">
+        <v>26711424</v>
+      </c>
+      <c r="G8" s="46">
+        <f t="shared" si="1"/>
+        <v>3423019.4035203308</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="46">
+        <v>7186803.8399996702</v>
+      </c>
+      <c r="D9" s="46">
+        <v>16101600.7564804</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" si="0"/>
+        <v>23288404.596480072</v>
+      </c>
+      <c r="F9" s="51">
+        <v>26711424</v>
+      </c>
+      <c r="G9" s="46">
+        <f t="shared" si="1"/>
+        <v>3423019.4035199285</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="46">
+        <v>7665924.0959996702</v>
+      </c>
+      <c r="D10" s="46">
+        <v>15622480.500480199</v>
+      </c>
+      <c r="E10" s="46">
+        <f t="shared" si="0"/>
+        <v>23288404.59647987</v>
+      </c>
+      <c r="F10" s="51">
+        <v>26711424</v>
+      </c>
+      <c r="G10" s="46">
+        <f t="shared" si="1"/>
+        <v>3423019.4035201296</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="46">
+        <v>8145044.3519996703</v>
+      </c>
+      <c r="D11" s="46">
+        <v>15143360.244480301</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" si="0"/>
+        <v>23288404.596479971</v>
+      </c>
+      <c r="F11" s="51">
+        <v>26711424</v>
+      </c>
+      <c r="G11" s="46">
+        <f t="shared" si="1"/>
+        <v>3423019.403520029</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="46">
+        <v>8624164.6079996694</v>
+      </c>
+      <c r="D12" s="46">
+        <v>15009206.572800299</v>
+      </c>
+      <c r="E12" s="46">
+        <f t="shared" si="0"/>
+        <v>23633371.180799969</v>
+      </c>
+      <c r="F12" s="51">
+        <v>26711424</v>
+      </c>
+      <c r="G12" s="46">
+        <f t="shared" si="1"/>
+        <v>3078052.8192000315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="49">
+        <v>9103284.8639996592</v>
+      </c>
+      <c r="D13" s="49">
+        <v>14530086.316800199</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
+        <v>23633371.180799857</v>
+      </c>
+      <c r="F13" s="51">
+        <v>26711424</v>
+      </c>
+      <c r="G13" s="46">
+        <f t="shared" si="1"/>
+        <v>3078052.8192001432</v>
+      </c>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="46">
+        <v>9582405.1199996602</v>
+      </c>
+      <c r="D14" s="46">
+        <v>14050966.060800301</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="0"/>
+        <v>23633371.180799961</v>
+      </c>
+      <c r="F14" s="51">
+        <v>22918809.600000001</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="1"/>
+        <v>714561.5807999596</v>
+      </c>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="46">
+        <v>10061525.3759996</v>
+      </c>
+      <c r="D15" s="46">
+        <v>13571845.8048003</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="0"/>
+        <v>23633371.180799901</v>
+      </c>
+      <c r="F15" s="51">
+        <v>22918809.600000001</v>
+      </c>
+      <c r="G15" s="46">
+        <f t="shared" si="1"/>
+        <v>714561.5807999</v>
+      </c>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="46">
+        <v>10540645.631999601</v>
+      </c>
+      <c r="D16" s="46">
+        <v>13092725.548800301</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="0"/>
+        <v>23633371.180799901</v>
+      </c>
+      <c r="F16" s="51">
+        <v>22918809.600000001</v>
+      </c>
+      <c r="G16" s="46">
+        <f t="shared" si="1"/>
+        <v>714561.5807999</v>
+      </c>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="36"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="36"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="36"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="36"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="C22" s="44"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="46">
+        <v>23700000</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="46">
+        <v>25800000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="C23" s="44"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="46">
+        <v>9120000</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="46">
+        <v>9210000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="51">
+        <v>26640057.600000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="51"/>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="51">
+        <v>26711424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="51"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="51"/>
+    </row>
+    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="51"/>
+    </row>
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" s="51"/>
+    </row>
+    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" s="51"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" s="51">
+        <v>22918809.600000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35" s="51"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" s="51"/>
+    </row>
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C38" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>5270322.8159999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>16525422.307835929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>23288404.596479971</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>23288404.596479669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>23288404.596480072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>23288404.59647987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>23288404.596479971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>23633371.180799969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>23633371.180799857</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>23633371.180799961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>23633371.180799901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>23633371.180799901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/streamflow-data/data-dict.xlsx
+++ b/streamflow-data/data-dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F738C28-2B30-AC41-A357-FC88A3407DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62572C5A-FD03-CA47-8CC4-204F7D9408AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="3" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Sum:</t>
+  </si>
+  <si>
+    <t>P2 [MWh]</t>
+  </si>
+  <si>
+    <t>P2_Max [MWh]</t>
   </si>
 </sst>
 </file>
@@ -353,8 +359,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -532,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -626,14 +632,13 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5142,10 +5147,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92962B32-873B-9243-A01D-58052F25BB50}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5156,16 +5161,16 @@
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="B1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>78</v>
       </c>
@@ -5184,304 +5189,394 @@
       <c r="F2" s="33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="34">
         <v>171.450959712817</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>865318870.98242497</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="40">
         <v>3119378.6879999898</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>22.4339493712191</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>171.450959712817</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="41">
+        <v>631.64678002071105</v>
+      </c>
+      <c r="H3" s="41">
+        <v>631.64678002071105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="35">
         <v>207.463694205069</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <v>888435811.692541</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>3731021.56700456</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>22.695944619573499</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>207.46369426031799</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="41">
+        <v>705.51485272517505</v>
+      </c>
+      <c r="H4" s="41">
+        <v>705.51485272517505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="36">
         <v>244.149159882921</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>910941109.52416599</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="40">
         <v>4342664.4454928897</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>22.947367813052502</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>244.14916002346001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="41">
+        <v>767.41747193569802</v>
+      </c>
+      <c r="H5" s="41">
+        <v>767.41747193569802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="36">
         <v>281.46498514612603</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>932834764.47716999</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <v>4954307.3241135301</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>23.188643717563</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>281.46498536594402</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="41">
+        <v>826.44958517181396</v>
+      </c>
+      <c r="H6" s="41">
+        <v>826.44958517181396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="36">
         <v>319.370842240402</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>954116776.55174005</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>5565950.2025504103</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>23.420160272347701</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>319.370842551203</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="41">
+        <v>885.48169840785499</v>
+      </c>
+      <c r="H7" s="41">
+        <v>885.48169840785499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="36">
         <v>355.19748083730701</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>958590101.45702004</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>6177593.0804516599</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>23.468454739408699</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>355.197481271318</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="41">
+        <v>944.51381164374402</v>
+      </c>
+      <c r="H8" s="41">
+        <v>944.51381164374402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="36">
         <v>390.365548069243</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>958590101.45702004</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>6789235.95661378</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>23.468454739408699</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>390.36554872392401</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="41">
+        <v>1003.54592487917</v>
+      </c>
+      <c r="H9" s="41">
+        <v>1003.54592487918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="B11" s="38" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="36">
         <v>171.450934668581</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="40">
         <v>865318870.98242497</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="40">
         <v>3119378.6879999898</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>22.4339493712191</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>171.450959712817</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="41">
+        <v>631.64144910793004</v>
+      </c>
+      <c r="H12" s="41">
+        <v>631.64678002071105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>208.61339677714801</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="40">
         <v>888435811.69154596</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="40">
         <v>3731021.5679999902</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>22.695944619573499</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>207.46369426031799</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="41">
+        <v>705.74894394609305</v>
+      </c>
+      <c r="H13" s="41">
+        <v>705.51485271403703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>245.70328666538799</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="40">
         <v>910941109.520666</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="40">
         <v>4342664.4479999896</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>22.947367813052502</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>244.14916002346001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="41">
+        <v>767.417471912221</v>
+      </c>
+      <c r="H14" s="41">
+        <v>767.417471912221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>282.71941284447797</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="40">
         <v>932834764.46978498</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>4954307.3279999904</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>23.188643717563</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>281.46498536594402</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="41">
+        <v>826.44958513623806</v>
+      </c>
+      <c r="H15" s="41">
+        <v>826.44958513623806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="42">
         <v>319.66017284806901</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="40">
         <v>954116776.53890502</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <v>5565950.2080000499</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>23.420160272347701</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>319.370842551203</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="41">
+        <v>885.481698360255</v>
+      </c>
+      <c r="H16" s="41">
+        <v>885.481698360255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" s="36">
         <v>355.19748127132198</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="40">
         <v>958590101.45702004</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <v>6177593.0880000498</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>23.468454739408699</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>355.197481271318</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="41">
+        <v>944.51381158427296</v>
+      </c>
+      <c r="H17" s="41">
+        <v>944.51381158427296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18" s="36">
         <v>390.36554872392799</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="40">
         <v>958590101.45702004</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="40">
         <v>6789235.9680000497</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>23.468454739408699</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>390.36554872392401</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="22" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+      <c r="G18" s="41">
+        <v>1003.54592480829</v>
+      </c>
+      <c r="H18" s="41">
+        <v>1003.54592480828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5489,213 +5584,277 @@
         <f>B12-B3</f>
         <v>-2.5044235997029318E-5</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="39">
         <f>C12-C3</f>
         <v>0</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="39">
         <f t="shared" ref="D21:F21" si="0">D12-D3</f>
         <v>0</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="39">
+        <f t="shared" ref="G21:H21" si="1">G12-G3</f>
+        <v>-5.3309127810052814E-3</v>
+      </c>
+      <c r="H21" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="44">
-        <f t="shared" ref="B22:C27" si="1">B13-B4</f>
+      <c r="B22" s="43">
+        <f t="shared" ref="B22:C27" si="2">B13-B4</f>
         <v>1.1497025720790077</v>
       </c>
-      <c r="C22" s="40">
-        <f t="shared" si="1"/>
+      <c r="C22" s="39">
+        <f t="shared" si="2"/>
         <v>-9.9503993988037109E-4</v>
       </c>
-      <c r="D22" s="40">
-        <f t="shared" ref="D22:F22" si="2">D13-D4</f>
+      <c r="D22" s="39">
+        <f t="shared" ref="D22:F22" si="3">D13-D4</f>
         <v>9.9543016403913498E-4</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" ref="G22:H22" si="4">G13-G4</f>
+        <v>0.23409122091800327</v>
+      </c>
+      <c r="H22" s="39">
+        <f t="shared" si="4"/>
+        <v>-1.1138013178424444E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="43">
+        <f t="shared" si="2"/>
+        <v>1.5541267824669944</v>
+      </c>
+      <c r="C23" s="39">
+        <f t="shared" si="2"/>
+        <v>-3.4999847412109375E-3</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" ref="D23:F23" si="5">D14-D5</f>
+        <v>2.5070998817682266E-3</v>
+      </c>
+      <c r="E23" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="39">
+        <f t="shared" ref="G23:H23" si="6">G14-G5</f>
+        <v>-2.347701411054004E-8</v>
+      </c>
+      <c r="H23" s="39">
+        <f t="shared" si="6"/>
+        <v>-2.347701411054004E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="43">
+        <f t="shared" si="2"/>
+        <v>1.2544276983519467</v>
+      </c>
+      <c r="C24" s="39">
+        <f t="shared" si="2"/>
+        <v>-7.3850154876708984E-3</v>
+      </c>
+      <c r="D24" s="39">
+        <f t="shared" ref="D24:F24" si="7">D15-D6</f>
+        <v>3.8864603266119957E-3</v>
+      </c>
+      <c r="E24" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" ref="G24:H24" si="8">G15-G6</f>
+        <v>-3.5575908441387583E-8</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="8"/>
+        <v>-3.5575908441387583E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="32">
+        <f t="shared" si="2"/>
+        <v>0.28933060766701146</v>
+      </c>
+      <c r="C25" s="39">
+        <f t="shared" si="2"/>
+        <v>-1.2835025787353516E-2</v>
+      </c>
+      <c r="D25" s="39">
+        <f t="shared" ref="D25:F25" si="9">D16-D7</f>
+        <v>5.4496396332979202E-3</v>
+      </c>
+      <c r="E25" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
+        <f t="shared" ref="G25:H25" si="10">G16-G7</f>
+        <v>-4.7599996833014302E-8</v>
+      </c>
+      <c r="H25" s="39">
+        <f t="shared" si="10"/>
+        <v>-4.7599996833014302E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="32">
+        <f t="shared" si="2"/>
+        <v>4.3401496441219933E-7</v>
+      </c>
+      <c r="C26" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="40">
+      <c r="D26" s="39">
+        <f t="shared" ref="D26:F26" si="11">D17-D8</f>
+        <v>7.5483899563550949E-3</v>
+      </c>
+      <c r="E26" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
+        <f t="shared" ref="G26:H26" si="12">G17-G8</f>
+        <v>-5.9471062741067726E-8</v>
+      </c>
+      <c r="H26" s="39">
+        <f t="shared" si="12"/>
+        <v>-5.9471062741067726E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="32">
+        <f t="shared" si="2"/>
+        <v>6.5468498178233858E-7</v>
+      </c>
+      <c r="C27" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="44">
-        <f t="shared" si="1"/>
-        <v>1.5541267824669944</v>
-      </c>
-      <c r="C23" s="40">
-        <f t="shared" si="1"/>
-        <v>-3.4999847412109375E-3</v>
-      </c>
-      <c r="D23" s="40">
-        <f t="shared" ref="D23:F23" si="3">D14-D5</f>
-        <v>2.5070998817682266E-3</v>
-      </c>
-      <c r="E23" s="40">
-        <f t="shared" si="3"/>
+      <c r="D27" s="39">
+        <f t="shared" ref="D27:F27" si="13">D18-D9</f>
+        <v>1.1386269703507423E-2</v>
+      </c>
+      <c r="E27" s="39">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F23" s="40">
-        <f t="shared" si="3"/>
+      <c r="F27" s="39">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="44">
-        <f t="shared" si="1"/>
-        <v>1.2544276983519467</v>
-      </c>
-      <c r="C24" s="40">
-        <f t="shared" si="1"/>
-        <v>-7.3850154876708984E-3</v>
-      </c>
-      <c r="D24" s="40">
-        <f t="shared" ref="D24:F24" si="4">D15-D6</f>
-        <v>3.8864603266119957E-3</v>
-      </c>
-      <c r="E24" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" s="32">
-        <f t="shared" si="1"/>
-        <v>0.28933060766701146</v>
-      </c>
-      <c r="C25" s="40">
-        <f t="shared" si="1"/>
-        <v>-1.2835025787353516E-2</v>
-      </c>
-      <c r="D25" s="40">
-        <f t="shared" ref="D25:F25" si="5">D16-D7</f>
-        <v>5.4496396332979202E-3</v>
-      </c>
-      <c r="E25" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" s="32">
-        <f t="shared" si="1"/>
-        <v>4.3401496441219933E-7</v>
-      </c>
-      <c r="C26" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <f t="shared" ref="D26:F26" si="6">D17-D8</f>
-        <v>7.5483899563550949E-3</v>
-      </c>
-      <c r="E26" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27" s="32">
-        <f t="shared" si="1"/>
-        <v>6.5468498178233858E-7</v>
-      </c>
-      <c r="C27" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="40">
-        <f t="shared" ref="D27:F27" si="7">D18-D9</f>
-        <v>1.1386269703507423E-2</v>
-      </c>
-      <c r="E27" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="39">
+        <f t="shared" ref="G27:H27" si="14">G18-G9</f>
+        <v>-7.0879991653782781E-8</v>
+      </c>
+      <c r="H27" s="39">
+        <f t="shared" si="14"/>
+        <v>-7.0900000537221786E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="43">
         <f>SUM(B21:B27)</f>
         <v>4.2475637050289095</v>
       </c>
       <c r="C29" s="32">
-        <f t="shared" ref="C29:E29" si="8">SUM(C21:C27)</f>
+        <f t="shared" ref="C29:E29" si="15">SUM(C21:C27)</f>
         <v>-2.4715065956115723E-2</v>
       </c>
       <c r="D29" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.1773289665579796E-2</v>
       </c>
       <c r="E29" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F29" s="32">
         <f>SUM(F21:F27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="32">
+        <f t="shared" ref="G29:H29" si="16">SUM(G21:G27)</f>
+        <v>0.22876007113302421</v>
+      </c>
+      <c r="H29" s="32">
+        <f t="shared" si="16"/>
+        <v>-2.4816199584165588E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>

--- a/streamflow-data/data-dict.xlsx
+++ b/streamflow-data/data-dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62572C5A-FD03-CA47-8CC4-204F7D9408AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CAF6AD-ABC6-AE43-8728-041AEF7B1B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="3" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
@@ -5150,7 +5150,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/streamflow-data/data-dict.xlsx
+++ b/streamflow-data/data-dict.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25880A4D-AD16-994A-861B-1A33D73DFE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F738C28-2B30-AC41-A357-FC88A3407DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="1" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="3" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Features" sheetId="2" r:id="rId2"/>
     <sheet name="bon" sheetId="3" r:id="rId3"/>
+    <sheet name="debug" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -318,13 +319,44 @@
   </si>
   <si>
     <t>USBR</t>
+  </si>
+  <si>
+    <t>MINLP</t>
+  </si>
+  <si>
+    <t>Time [hr]</t>
+  </si>
+  <si>
+    <t>Head [m]</t>
+  </si>
+  <si>
+    <t>P1 [MWh]</t>
+  </si>
+  <si>
+    <t>V1 [m3]</t>
+  </si>
+  <si>
+    <t>U1 [m3/hr]</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>P1_Max [MWh]</t>
+  </si>
+  <si>
+    <t>Sum:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,6 +479,37 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -469,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +611,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1350,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0B08DC-B182-A544-B60A-AB068FE2E834}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -5046,4 +5138,571 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92962B32-873B-9243-A01D-58052F25BB50}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34">
+        <v>171.450959712817</v>
+      </c>
+      <c r="C3" s="41">
+        <v>865318870.98242497</v>
+      </c>
+      <c r="D3" s="41">
+        <v>3119378.6879999898</v>
+      </c>
+      <c r="E3" s="42">
+        <v>22.4339493712191</v>
+      </c>
+      <c r="F3" s="42">
+        <v>171.450959712817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>207.463694205069</v>
+      </c>
+      <c r="C4" s="41">
+        <v>888435811.692541</v>
+      </c>
+      <c r="D4" s="41">
+        <v>3731021.56700456</v>
+      </c>
+      <c r="E4" s="42">
+        <v>22.695944619573499</v>
+      </c>
+      <c r="F4" s="42">
+        <v>207.46369426031799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36">
+        <v>244.149159882921</v>
+      </c>
+      <c r="C5" s="41">
+        <v>910941109.52416599</v>
+      </c>
+      <c r="D5" s="41">
+        <v>4342664.4454928897</v>
+      </c>
+      <c r="E5" s="42">
+        <v>22.947367813052502</v>
+      </c>
+      <c r="F5" s="42">
+        <v>244.14916002346001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36">
+        <v>281.46498514612603</v>
+      </c>
+      <c r="C6" s="41">
+        <v>932834764.47716999</v>
+      </c>
+      <c r="D6" s="41">
+        <v>4954307.3241135301</v>
+      </c>
+      <c r="E6" s="42">
+        <v>23.188643717563</v>
+      </c>
+      <c r="F6" s="42">
+        <v>281.46498536594402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36">
+        <v>319.370842240402</v>
+      </c>
+      <c r="C7" s="41">
+        <v>954116776.55174005</v>
+      </c>
+      <c r="D7" s="41">
+        <v>5565950.2025504103</v>
+      </c>
+      <c r="E7" s="42">
+        <v>23.420160272347701</v>
+      </c>
+      <c r="F7" s="42">
+        <v>319.370842551203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36">
+        <v>355.19748083730701</v>
+      </c>
+      <c r="C8" s="41">
+        <v>958590101.45702004</v>
+      </c>
+      <c r="D8" s="41">
+        <v>6177593.0804516599</v>
+      </c>
+      <c r="E8" s="42">
+        <v>23.468454739408699</v>
+      </c>
+      <c r="F8" s="42">
+        <v>355.197481271318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36">
+        <v>390.365548069243</v>
+      </c>
+      <c r="C9" s="41">
+        <v>958590101.45702004</v>
+      </c>
+      <c r="D9" s="41">
+        <v>6789235.95661378</v>
+      </c>
+      <c r="E9" s="42">
+        <v>23.468454739408699</v>
+      </c>
+      <c r="F9" s="42">
+        <v>390.36554872392401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36">
+        <v>171.450934668581</v>
+      </c>
+      <c r="C12" s="41">
+        <v>865318870.98242497</v>
+      </c>
+      <c r="D12" s="41">
+        <v>3119378.6879999898</v>
+      </c>
+      <c r="E12" s="42">
+        <v>22.4339493712191</v>
+      </c>
+      <c r="F12" s="42">
+        <v>171.450959712817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="43">
+        <v>208.61339677714801</v>
+      </c>
+      <c r="C13" s="41">
+        <v>888435811.69154596</v>
+      </c>
+      <c r="D13" s="41">
+        <v>3731021.5679999902</v>
+      </c>
+      <c r="E13" s="42">
+        <v>22.695944619573499</v>
+      </c>
+      <c r="F13" s="42">
+        <v>207.46369426031799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="43">
+        <v>245.70328666538799</v>
+      </c>
+      <c r="C14" s="41">
+        <v>910941109.520666</v>
+      </c>
+      <c r="D14" s="41">
+        <v>4342664.4479999896</v>
+      </c>
+      <c r="E14" s="42">
+        <v>22.947367813052502</v>
+      </c>
+      <c r="F14" s="42">
+        <v>244.14916002346001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="43">
+        <v>282.71941284447797</v>
+      </c>
+      <c r="C15" s="41">
+        <v>932834764.46978498</v>
+      </c>
+      <c r="D15" s="41">
+        <v>4954307.3279999904</v>
+      </c>
+      <c r="E15" s="42">
+        <v>23.188643717563</v>
+      </c>
+      <c r="F15" s="42">
+        <v>281.46498536594402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="36">
+        <v>319.66017284806901</v>
+      </c>
+      <c r="C16" s="41">
+        <v>954116776.53890502</v>
+      </c>
+      <c r="D16" s="41">
+        <v>5565950.2080000499</v>
+      </c>
+      <c r="E16" s="42">
+        <v>23.420160272347701</v>
+      </c>
+      <c r="F16" s="42">
+        <v>319.370842551203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="36">
+        <v>355.19748127132198</v>
+      </c>
+      <c r="C17" s="41">
+        <v>958590101.45702004</v>
+      </c>
+      <c r="D17" s="41">
+        <v>6177593.0880000498</v>
+      </c>
+      <c r="E17" s="42">
+        <v>23.468454739408699</v>
+      </c>
+      <c r="F17" s="42">
+        <v>355.197481271318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="36">
+        <v>390.36554872392799</v>
+      </c>
+      <c r="C18" s="41">
+        <v>958590101.45702004</v>
+      </c>
+      <c r="D18" s="41">
+        <v>6789235.9680000497</v>
+      </c>
+      <c r="E18" s="42">
+        <v>23.468454739408699</v>
+      </c>
+      <c r="F18" s="42">
+        <v>390.36554872392401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="B20" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="32">
+        <f>B12-B3</f>
+        <v>-2.5044235997029318E-5</v>
+      </c>
+      <c r="C21" s="40">
+        <f>C12-C3</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:F21" si="0">D12-D3</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="44">
+        <f t="shared" ref="B22:C27" si="1">B13-B4</f>
+        <v>1.1497025720790077</v>
+      </c>
+      <c r="C22" s="40">
+        <f t="shared" si="1"/>
+        <v>-9.9503993988037109E-4</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" ref="D22:F22" si="2">D13-D4</f>
+        <v>9.9543016403913498E-4</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="44">
+        <f t="shared" si="1"/>
+        <v>1.5541267824669944</v>
+      </c>
+      <c r="C23" s="40">
+        <f t="shared" si="1"/>
+        <v>-3.4999847412109375E-3</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" ref="D23:F23" si="3">D14-D5</f>
+        <v>2.5070998817682266E-3</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="44">
+        <f t="shared" si="1"/>
+        <v>1.2544276983519467</v>
+      </c>
+      <c r="C24" s="40">
+        <f t="shared" si="1"/>
+        <v>-7.3850154876708984E-3</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" ref="D24:F24" si="4">D15-D6</f>
+        <v>3.8864603266119957E-3</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="32">
+        <f t="shared" si="1"/>
+        <v>0.28933060766701146</v>
+      </c>
+      <c r="C25" s="40">
+        <f t="shared" si="1"/>
+        <v>-1.2835025787353516E-2</v>
+      </c>
+      <c r="D25" s="40">
+        <f t="shared" ref="D25:F25" si="5">D16-D7</f>
+        <v>5.4496396332979202E-3</v>
+      </c>
+      <c r="E25" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="32">
+        <f t="shared" si="1"/>
+        <v>4.3401496441219933E-7</v>
+      </c>
+      <c r="C26" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="40">
+        <f t="shared" ref="D26:F26" si="6">D17-D8</f>
+        <v>7.5483899563550949E-3</v>
+      </c>
+      <c r="E26" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="32">
+        <f t="shared" si="1"/>
+        <v>6.5468498178233858E-7</v>
+      </c>
+      <c r="C27" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="40">
+        <f t="shared" ref="D27:F27" si="7">D18-D9</f>
+        <v>1.1386269703507423E-2</v>
+      </c>
+      <c r="E27" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="44">
+        <f>SUM(B21:B27)</f>
+        <v>4.2475637050289095</v>
+      </c>
+      <c r="C29" s="32">
+        <f t="shared" ref="C29:E29" si="8">SUM(C21:C27)</f>
+        <v>-2.4715065956115723E-2</v>
+      </c>
+      <c r="D29" s="32">
+        <f t="shared" si="8"/>
+        <v>3.1773289665579796E-2</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <f>SUM(F21:F27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/streamflow-data/data-dict.xlsx
+++ b/streamflow-data/data-dict.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CAF6AD-ABC6-AE43-8728-041AEF7B1B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB8C19-AA96-0741-965B-1EB30102CE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="3" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="4" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Features" sheetId="2" r:id="rId2"/>
     <sheet name="bon" sheetId="3" r:id="rId3"/>
-    <sheet name="debug" sheetId="4" r:id="rId4"/>
+    <sheet name="debug-cha" sheetId="4" r:id="rId4"/>
+    <sheet name="debug-diu" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -352,17 +353,31 @@
   </si>
   <si>
     <t>P2_Max [MWh]</t>
+  </si>
+  <si>
+    <t>S1 [m3/hr]</t>
+  </si>
+  <si>
+    <t>S2 [m3/hr]</t>
+  </si>
+  <si>
+    <t>V2 [m3]</t>
+  </si>
+  <si>
+    <t>U2 [m3/hr]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,6 +531,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -538,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,6 +667,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5149,8 +5181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92962B32-873B-9243-A01D-58052F25BB50}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5864,4 +5896,417 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45049F-3A37-D04F-B434-CE1608A3C430}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+      <c r="B1" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34">
+        <v>173.540663919362</v>
+      </c>
+      <c r="C3" s="40">
+        <v>889452769.920017</v>
+      </c>
+      <c r="D3" s="40">
+        <v>3119378.6879999898</v>
+      </c>
+      <c r="E3" s="41">
+        <v>22.707382185179199</v>
+      </c>
+      <c r="F3" s="41">
+        <v>173.54066391936101</v>
+      </c>
+      <c r="G3" s="36">
+        <v>8.7856315076351098E-6</v>
+      </c>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>209.92702924016601</v>
+      </c>
+      <c r="C4" s="40">
+        <v>912569710.63206899</v>
+      </c>
+      <c r="D4" s="40">
+        <v>3731021.565068</v>
+      </c>
+      <c r="E4" s="41">
+        <v>22.965426555801301</v>
+      </c>
+      <c r="F4" s="41">
+        <v>209.92702924016601</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36">
+        <v>246.97698326036701</v>
+      </c>
+      <c r="C5" s="40">
+        <v>935075008.46702194</v>
+      </c>
+      <c r="D5" s="40">
+        <v>4342664.4421666795</v>
+      </c>
+      <c r="E5" s="41">
+        <v>23.213152497850199</v>
+      </c>
+      <c r="F5" s="41">
+        <v>246.97698326036701</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36">
+        <v>284.64904411047303</v>
+      </c>
+      <c r="C6" s="40">
+        <v>956968663.42197502</v>
+      </c>
+      <c r="D6" s="40">
+        <v>4954307.3221666804</v>
+      </c>
+      <c r="E6" s="41">
+        <v>23.4509641318711</v>
+      </c>
+      <c r="F6" s="41">
+        <v>284.64904411047303</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36">
+        <v>320.02941347805597</v>
+      </c>
+      <c r="C7" s="40">
+        <v>958590101.42128205</v>
+      </c>
+      <c r="D7" s="40">
+        <v>5565950.2021666802</v>
+      </c>
+      <c r="E7" s="41">
+        <v>23.468454739023301</v>
+      </c>
+      <c r="F7" s="41">
+        <v>320.02941347805597</v>
+      </c>
+      <c r="G7" s="47">
+        <v>19660574.075646799</v>
+      </c>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36">
+        <v>355.19748093591699</v>
+      </c>
+      <c r="C8" s="40">
+        <v>958590101.45702004</v>
+      </c>
+      <c r="D8" s="40">
+        <v>6177593.0821666801</v>
+      </c>
+      <c r="E8" s="41">
+        <v>23.468454739408699</v>
+      </c>
+      <c r="F8" s="41">
+        <v>355.19748093591699</v>
+      </c>
+      <c r="G8" s="47">
+        <v>20670369.159214702</v>
+      </c>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36">
+        <v>390.36554838785298</v>
+      </c>
+      <c r="C9" s="40">
+        <v>958590101.45328403</v>
+      </c>
+      <c r="D9" s="40">
+        <v>6789235.96216668</v>
+      </c>
+      <c r="E9" s="41">
+        <v>23.468454739368401</v>
+      </c>
+      <c r="F9" s="41">
+        <v>390.36554838785202</v>
+      </c>
+      <c r="G9" s="47">
+        <v>20058726.318689901</v>
+      </c>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36">
+        <v>646.97309800004098</v>
+      </c>
+      <c r="C12" s="47">
+        <v>129622258.171387</v>
+      </c>
+      <c r="D12" s="46">
+        <v>5270322.8159999996</v>
+      </c>
+      <c r="E12" s="41">
+        <v>50.1052139431063</v>
+      </c>
+      <c r="F12" s="45">
+        <v>646.97309800004098</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="36">
+        <v>708.38535868818406</v>
+      </c>
+      <c r="C13" s="47">
+        <v>133223556.472829</v>
+      </c>
+      <c r="D13" s="46">
+        <v>5749443.0719998302</v>
+      </c>
+      <c r="E13" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F13" s="45">
+        <v>708.38535868818406</v>
+      </c>
+      <c r="G13" s="46">
+        <v>17258578.239997301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="36">
+        <v>767.41747191218099</v>
+      </c>
+      <c r="C14" s="47">
+        <v>133223556.472829</v>
+      </c>
+      <c r="D14" s="46">
+        <v>6228563.3279996701</v>
+      </c>
+      <c r="E14" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F14" s="45">
+        <v>767.41747191217996</v>
+      </c>
+      <c r="G14" s="46">
+        <v>20380756.2854403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="36">
+        <v>826.44958513619804</v>
+      </c>
+      <c r="C15" s="47">
+        <v>133223556.47283</v>
+      </c>
+      <c r="D15" s="46">
+        <v>6707683.5839996701</v>
+      </c>
+      <c r="E15" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F15" s="45">
+        <v>826.44958513619804</v>
+      </c>
+      <c r="G15" s="46">
+        <v>19901636.029440001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="36">
+        <v>885.48169836021498</v>
+      </c>
+      <c r="C16" s="47">
+        <v>133223556.47283</v>
+      </c>
+      <c r="D16" s="46">
+        <v>7186803.8399996702</v>
+      </c>
+      <c r="E16" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F16" s="45">
+        <v>885.48169836021498</v>
+      </c>
+      <c r="G16" s="46">
+        <v>19422515.773440301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="36">
+        <v>944.513811584211</v>
+      </c>
+      <c r="C17" s="47">
+        <v>133223556.472829</v>
+      </c>
+      <c r="D17" s="46">
+        <v>7665924.0959994998</v>
+      </c>
+      <c r="E17" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F17" s="45">
+        <v>944.513811584211</v>
+      </c>
+      <c r="G17" s="46">
+        <v>18943395.517440699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="36">
+        <v>1003.54592480822</v>
+      </c>
+      <c r="C18" s="47">
+        <v>133223556.47283</v>
+      </c>
+      <c r="D18" s="46">
+        <v>8145044.3519994998</v>
+      </c>
+      <c r="E18" s="41">
+        <v>50.289545870161497</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1003.54592480822</v>
+      </c>
+      <c r="G18" s="46">
+        <v>18464275.261440299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/streamflow-data/data-dict.xlsx
+++ b/streamflow-data/data-dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/streamflow-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E41D1-44B8-2F47-8E84-DE6377F5FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F79D6-047C-5F47-B38D-0577BC3ED638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="5" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
@@ -6525,7 +6525,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
